--- a/UnityEliminate/Assets/Save.xlsx
+++ b/UnityEliminate/Assets/Save.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\LayaAir\UnityEliminate\UnityEliminate\Assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="12915" windowHeight="10755"/>
   </bookViews>
@@ -16,20 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写入速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>存储空间</t>
   </si>
   <si>
@@ -54,14 +51,30 @@
   </si>
   <si>
     <t>读时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观看性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +92,14 @@
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,11 +124,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,6 +140,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,77 +437,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="C5">
         <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -484,12 +533,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -497,12 +546,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
